--- a/things/product.xlsx
+++ b/things/product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학생방\Front이창민\gentlemonster\things\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,160 @@
   </si>
   <si>
     <t>소스(src)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>골</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회,초,노,검,주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검주회갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈노검주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주갈회검검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검보흰아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰보노검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주검호골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검검파회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아검검갈보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈검파보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰검회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨갈검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검주브골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브검호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회검호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호회검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검회초주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨골호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회주검골</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +594,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -470,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,17 +939,17 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -797,7 +967,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -813,8 +983,9 @@
       <c r="E2" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -831,7 +1002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -847,8 +1018,11 @@
       <c r="E4" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -864,8 +1038,11 @@
       <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -881,8 +1058,11 @@
       <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -898,8 +1078,11 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -915,8 +1098,11 @@
       <c r="E8" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -935,8 +1121,11 @@
       <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -952,8 +1141,11 @@
       <c r="E10" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -969,8 +1161,11 @@
       <c r="E11" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -986,8 +1181,11 @@
       <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1003,8 +1201,11 @@
       <c r="E13" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1020,8 +1221,11 @@
       <c r="E14" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1037,8 +1241,11 @@
       <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1054,8 +1261,11 @@
       <c r="E16" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1071,8 +1281,11 @@
       <c r="E17" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1088,8 +1301,11 @@
       <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1105,8 +1321,11 @@
       <c r="E19" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1122,8 +1341,11 @@
       <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1139,8 +1361,11 @@
       <c r="E21" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1156,8 +1381,11 @@
       <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1173,8 +1401,11 @@
       <c r="E23" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1190,8 +1421,11 @@
       <c r="E24" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1207,8 +1441,11 @@
       <c r="E25" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1225,7 +1462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1242,7 +1479,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1496,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1296,7 +1533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1313,7 +1550,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1567,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1621,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1638,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1655,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1689,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1486,7 +1723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1503,7 +1740,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +1760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1540,7 +1777,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1794,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1574,7 +1811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1591,7 +1828,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>43</v>
       </c>
